--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,6 +121,306 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>M001</t>
+  </si>
+  <si>
+    <t>視診</t>
+  </si>
+  <si>
+    <t>M002</t>
+  </si>
+  <si>
+    <t>触診</t>
+  </si>
+  <si>
+    <t>M003</t>
+  </si>
+  <si>
+    <t>血圧計</t>
+  </si>
+  <si>
+    <t>M004</t>
+  </si>
+  <si>
+    <t>測定</t>
+  </si>
+  <si>
+    <t>M005</t>
+  </si>
+  <si>
+    <t>体温計</t>
+  </si>
+  <si>
+    <t>M006</t>
+  </si>
+  <si>
+    <t>パルスオキシメータ</t>
+  </si>
+  <si>
+    <t>M007</t>
+  </si>
+  <si>
+    <t>観血的</t>
+  </si>
+  <si>
+    <t>M008</t>
+  </si>
+  <si>
+    <t>身長計</t>
+  </si>
+  <si>
+    <t>M009</t>
+  </si>
+  <si>
+    <t>体重計</t>
+  </si>
+  <si>
+    <t>M010</t>
+  </si>
+  <si>
+    <t>ネックフレクションテスト</t>
+  </si>
+  <si>
+    <t>M011</t>
+  </si>
+  <si>
+    <t>神経診察</t>
+  </si>
+  <si>
+    <t>M012</t>
+  </si>
+  <si>
+    <t>視力検査</t>
+  </si>
+  <si>
+    <t>M013</t>
+  </si>
+  <si>
+    <t>Goldmann視野計</t>
+  </si>
+  <si>
+    <t>M014</t>
+  </si>
+  <si>
+    <t>オージオメーター</t>
+  </si>
+  <si>
+    <t>M015</t>
+  </si>
+  <si>
+    <t>音叉</t>
+  </si>
+  <si>
+    <t>M016</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>M017</t>
+  </si>
+  <si>
+    <t>起立試験</t>
+  </si>
+  <si>
+    <t>M018</t>
+  </si>
+  <si>
+    <t>歩行試験</t>
+  </si>
+  <si>
+    <t>M019</t>
+  </si>
+  <si>
+    <t>握力計</t>
+  </si>
+  <si>
+    <t>M020</t>
+  </si>
+  <si>
+    <t>叩打診</t>
+  </si>
+  <si>
+    <t>M021</t>
+  </si>
+  <si>
+    <t>発語試験</t>
+  </si>
+  <si>
+    <t>M022</t>
+  </si>
+  <si>
+    <t>書字試験</t>
+  </si>
+  <si>
+    <t>M023</t>
+  </si>
+  <si>
+    <t>指鼻試験</t>
+  </si>
+  <si>
+    <t>M024</t>
+  </si>
+  <si>
+    <t>膝うち試験</t>
+  </si>
+  <si>
+    <t>M025</t>
+  </si>
+  <si>
+    <t>交互変換試験</t>
+  </si>
+  <si>
+    <t>M026</t>
+  </si>
+  <si>
+    <t>踵膝試験</t>
+  </si>
+  <si>
+    <t>M027</t>
+  </si>
+  <si>
+    <t>音叉・触</t>
+  </si>
+  <si>
+    <t>M028</t>
+  </si>
+  <si>
+    <t>問診</t>
+  </si>
+  <si>
+    <t>M029</t>
+  </si>
+  <si>
+    <t>アドソン試験</t>
+  </si>
+  <si>
+    <t>M030</t>
+  </si>
+  <si>
+    <t>アレン試験</t>
+  </si>
+  <si>
+    <t>M031</t>
+  </si>
+  <si>
+    <t>エデン試験</t>
+  </si>
+  <si>
+    <t>M032</t>
+  </si>
+  <si>
+    <t>ライト試験</t>
+  </si>
+  <si>
+    <t>M033</t>
+  </si>
+  <si>
+    <t>排尿試験・排便試験</t>
+  </si>
+  <si>
+    <t>M034</t>
+  </si>
+  <si>
+    <t>排尿試験</t>
+  </si>
+  <si>
+    <t>M035</t>
+  </si>
+  <si>
+    <t>排便試験</t>
+  </si>
+  <si>
+    <t>M036</t>
+  </si>
+  <si>
+    <t>自動血圧計</t>
+  </si>
+  <si>
+    <t>M037</t>
+  </si>
+  <si>
+    <t>打診</t>
+  </si>
+  <si>
+    <t>M038</t>
+  </si>
+  <si>
+    <t>色覚検査</t>
+  </si>
+  <si>
+    <t>M039</t>
+  </si>
+  <si>
+    <t>検眼鏡</t>
+  </si>
+  <si>
+    <t>M040</t>
+  </si>
+  <si>
+    <t>眼圧計</t>
+  </si>
+  <si>
+    <t>M041</t>
+  </si>
+  <si>
+    <t>耳鏡</t>
+  </si>
+  <si>
+    <t>M042</t>
+  </si>
+  <si>
+    <t>臭診</t>
+  </si>
+  <si>
+    <t>M043</t>
+  </si>
+  <si>
+    <t>視診・触診</t>
+  </si>
+  <si>
+    <t>M044</t>
+  </si>
+  <si>
+    <t>聴診</t>
+  </si>
+  <si>
+    <t>M045</t>
+  </si>
+  <si>
+    <t>肛門鏡</t>
+  </si>
+  <si>
+    <t>M046</t>
+  </si>
+  <si>
+    <t>直腸指診</t>
+  </si>
+  <si>
+    <t>M047</t>
+  </si>
+  <si>
+    <t>内診</t>
   </si>
 </sst>
 </file>
@@ -423,7 +724,600 @@
       <c r="A22" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-observation-physicalexam-method-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
